--- a/data/trans_orig/P15D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10B0614-86F7-4295-BF2B-956834AD3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36946B6-0EFD-4475-8B19-202E9718C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1909B7D3-5FC2-4702-8012-DE671CB24AE4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB649C8B-840E-4303-A70F-ACAF0CABA6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="116">
   <si>
     <t>Población según si dicho accidente se produjo dentro de su jornada laboral en 2007 (Tasa respuesta: 1,4%)</t>
   </si>
@@ -116,7 +116,7 @@
     <t>15,25%</t>
   </si>
   <si>
-    <t>67,2%</t>
+    <t>51,91%</t>
   </si>
   <si>
     <t>30,27%</t>
@@ -128,13 +128,13 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>53,39%</t>
+    <t>54,81%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>48,09%</t>
   </si>
   <si>
     <t>69,73%</t>
@@ -146,7 +146,7 @@
     <t>79,27%</t>
   </si>
   <si>
-    <t>46,61%</t>
+    <t>45,19%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -155,7 +155,7 @@
     <t>13,33%</t>
   </si>
   <si>
-    <t>50,08%</t>
+    <t>53,17%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -164,13 +164,13 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>48,16%</t>
+    <t>48,15%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>49,92%</t>
+    <t>46,83%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -179,13 +179,13 @@
     <t>87,65%</t>
   </si>
   <si>
-    <t>51,84%</t>
+    <t>51,85%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>66,06%</t>
+    <t>65,64%</t>
   </si>
   <si>
     <t>45,21%</t>
@@ -194,10 +194,10 @@
     <t>26,85%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>54,79%</t>
@@ -206,7 +206,7 @@
     <t>73,15%</t>
   </si>
   <si>
-    <t>35,52%</t>
+    <t>29,67%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -221,9 +221,6 @@
     <t>24,41%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
     <t>49,0%</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>75,59%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
     <t>Jaen</t>
   </si>
   <si>
@@ -245,37 +239,37 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>30,76%</t>
+    <t>29,85%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>66,16%</t>
+    <t>66,46%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>29,79%</t>
+    <t>29,41%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>69,24%</t>
+    <t>70,15%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>33,84%</t>
+    <t>33,54%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>70,21%</t>
+    <t>70,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -284,109 +278,109 @@
     <t>39,03%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF5B4D1-764F-4038-9B00-08E4FE6147EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4051FF6F-2EB0-418B-8A81-075A42383D92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1590,7 @@
         <v>899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -1614,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>20</v>
@@ -1626,10 +1620,10 @@
         <v>2896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>15</v>
@@ -1688,7 +1682,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1784,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -1843,7 +1837,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1855,13 +1849,13 @@
         <v>944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1870,13 +1864,13 @@
         <v>980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1885,13 +1879,13 @@
         <v>1924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,10 +1900,10 @@
         <v>13099</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -1921,10 +1915,10 @@
         <v>5033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>15</v>
@@ -1936,10 +1930,10 @@
         <v>18132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>15</v>
@@ -1998,7 +1992,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2010,13 +2004,13 @@
         <v>6091</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2025,13 +2019,13 @@
         <v>2991</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2040,13 +2034,13 @@
         <v>9083</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2055,13 @@
         <v>9515</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2076,13 +2070,13 @@
         <v>12387</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -2091,13 +2085,13 @@
         <v>21901</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2159,13 @@
         <v>11571</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2180,13 +2174,13 @@
         <v>7624</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -2195,13 +2189,13 @@
         <v>19196</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2210,13 @@
         <v>48490</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -2231,13 +2225,13 @@
         <v>28192</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -2246,13 +2240,13 @@
         <v>76682</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2302,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36946B6-0EFD-4475-8B19-202E9718C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDCFC8B-8453-4AEB-9FA6-43AE0430BB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB649C8B-840E-4303-A70F-ACAF0CABA6FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D32D1C4C-FC31-435C-9E12-B252F8264312}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>67,49%</t>
+    <t>65,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>84,15%</t>
   </si>
   <si>
-    <t>32,51%</t>
+    <t>34,36%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -116,7 +116,7 @@
     <t>15,25%</t>
   </si>
   <si>
-    <t>51,91%</t>
+    <t>67,62%</t>
   </si>
   <si>
     <t>30,27%</t>
@@ -128,13 +128,13 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>54,81%</t>
+    <t>58,63%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>48,09%</t>
+    <t>32,38%</t>
   </si>
   <si>
     <t>69,73%</t>
@@ -146,7 +146,7 @@
     <t>79,27%</t>
   </si>
   <si>
-    <t>45,19%</t>
+    <t>41,37%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -155,7 +155,7 @@
     <t>13,33%</t>
   </si>
   <si>
-    <t>53,17%</t>
+    <t>49,76%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -164,13 +164,13 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>48,15%</t>
+    <t>45,95%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>46,83%</t>
+    <t>50,24%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -179,13 +179,13 @@
     <t>87,65%</t>
   </si>
   <si>
-    <t>51,85%</t>
+    <t>54,05%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>65,64%</t>
+    <t>66,56%</t>
   </si>
   <si>
     <t>45,21%</t>
@@ -194,10 +194,10 @@
     <t>26,85%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>54,79%</t>
@@ -206,7 +206,7 @@
     <t>73,15%</t>
   </si>
   <si>
-    <t>29,67%</t>
+    <t>35,79%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -239,37 +239,37 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>29,85%</t>
+    <t>30,21%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>66,46%</t>
+    <t>67,16%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>29,41%</t>
+    <t>28,41%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>70,15%</t>
+    <t>69,79%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>33,54%</t>
+    <t>32,84%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>70,59%</t>
+    <t>71,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -278,109 +278,109 @@
     <t>39,03%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4051FF6F-2EB0-418B-8A81-075A42383D92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E70B78-CC2C-4F12-A94E-AFA3DC31BC01}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDCFC8B-8453-4AEB-9FA6-43AE0430BB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A00641-E105-4780-9C7E-4F185252C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D32D1C4C-FC31-435C-9E12-B252F8264312}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A0FBDE4-30AB-451D-BF95-654B101C1E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="118">
   <si>
     <t>Población según si dicho accidente se produjo dentro de su jornada laboral en 2007 (Tasa respuesta: 1,4%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,7 +89,7 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>65,64%</t>
+    <t>67,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>84,15%</t>
   </si>
   <si>
-    <t>34,36%</t>
+    <t>32,51%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -116,7 +116,7 @@
     <t>15,25%</t>
   </si>
   <si>
-    <t>67,62%</t>
+    <t>67,2%</t>
   </si>
   <si>
     <t>30,27%</t>
@@ -128,13 +128,13 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>58,63%</t>
+    <t>53,39%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>32,38%</t>
+    <t>32,8%</t>
   </si>
   <si>
     <t>69,73%</t>
@@ -146,7 +146,7 @@
     <t>79,27%</t>
   </si>
   <si>
-    <t>41,37%</t>
+    <t>46,61%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -155,7 +155,7 @@
     <t>13,33%</t>
   </si>
   <si>
-    <t>49,76%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -164,13 +164,13 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>45,95%</t>
+    <t>48,16%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>50,24%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -179,13 +179,13 @@
     <t>87,65%</t>
   </si>
   <si>
-    <t>54,05%</t>
+    <t>51,84%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>66,56%</t>
+    <t>66,06%</t>
   </si>
   <si>
     <t>45,21%</t>
@@ -194,10 +194,10 @@
     <t>26,85%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>54,79%</t>
@@ -206,7 +206,7 @@
     <t>73,15%</t>
   </si>
   <si>
-    <t>35,79%</t>
+    <t>35,52%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -221,6 +221,9 @@
     <t>24,41%</t>
   </si>
   <si>
+    <t>91,3%</t>
+  </si>
+  <si>
     <t>49,0%</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
     <t>75,59%</t>
   </si>
   <si>
+    <t>8,7%</t>
+  </si>
+  <si>
     <t>Jaen</t>
   </si>
   <si>
@@ -239,37 +245,37 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>30,21%</t>
+    <t>30,76%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>67,16%</t>
+    <t>66,16%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>28,41%</t>
+    <t>29,79%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>69,79%</t>
+    <t>69,24%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>32,84%</t>
+    <t>33,84%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>71,59%</t>
+    <t>70,21%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -278,109 +284,109 @@
     <t>39,03%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -795,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E70B78-CC2C-4F12-A94E-AFA3DC31BC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4CD81D-439D-4609-9702-EF80B2711A94}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1575,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,7 +1596,7 @@
         <v>899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -1608,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>20</v>
@@ -1620,10 +1626,10 @@
         <v>2896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>15</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1778,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -1837,7 +1843,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1849,13 +1855,13 @@
         <v>944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1864,13 +1870,13 @@
         <v>980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1879,13 +1885,13 @@
         <v>1924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,10 +1906,10 @@
         <v>13099</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>15</v>
@@ -1915,10 +1921,10 @@
         <v>5033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>15</v>
@@ -1930,10 +1936,10 @@
         <v>18132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>15</v>
@@ -1992,7 +1998,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2004,13 +2010,13 @@
         <v>6091</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2019,13 +2025,13 @@
         <v>2991</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2034,13 +2040,13 @@
         <v>9083</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2061,13 @@
         <v>9515</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2070,13 +2076,13 @@
         <v>12387</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -2085,13 +2091,13 @@
         <v>21901</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2165,13 @@
         <v>11571</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2174,13 +2180,13 @@
         <v>7624</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -2189,13 +2195,13 @@
         <v>19196</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2216,13 @@
         <v>48490</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -2225,13 +2231,13 @@
         <v>28192</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -2240,13 +2246,13 @@
         <v>76682</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2308,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A00641-E105-4780-9C7E-4F185252C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CD88F6-DEB8-4211-A003-DE4EBDAACE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A0FBDE4-30AB-451D-BF95-654B101C1E9F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7BF94150-D196-4081-A318-9317515B524A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4CD81D-439D-4609-9702-EF80B2711A94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C37754-2C67-4159-98FE-C97C7602F1C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
